--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E485FB-CEC7-4053-A09E-1503EB349586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728245D7-D5BA-4932-B7F6-B2C03F92A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -582,37 +582,6 @@
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1804,444 +1773,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DBD4-4F74-B56F-8A55AB727B5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="713638751"/>
-        <c:axId val="715084319"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="713638751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="715084319"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="715084319"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-            <a:prstDash val="solid"/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="713638751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cheyenne </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Bankroll</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4 09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4 16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4 26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4 29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5 04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5 13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5 17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5 20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5 24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5 27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5 31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Bankrolls!$X$2:$X$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0D11-4B3E-9E67-28E10233EE3C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>4 09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4 16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4 19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4 24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4 26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4 29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5 04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5 13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5 17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5 20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5 24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5 27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5 28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5 31</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Bankrolls!$Y$2:$Y$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35.200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>65.2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>65.2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>65.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0D11-4B3E-9E67-28E10233EE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2518,42 +2049,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2861,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728245D7-D5BA-4932-B7F6-B2C03F92A4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46829526-6584-4886-B910-D3EB139CEA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>5 31</t>
+  </si>
+  <si>
+    <t>6 07</t>
   </si>
 </sst>
 </file>
@@ -233,9 +236,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -277,16 +280,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$D$2:$D$15</c:f>
+              <c:f>Bankrolls!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -328,6 +334,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>86.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,7 +344,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C116-462D-B1A4-45321740E0CC}"/>
+              <c16:uniqueId val="{00000000-E789-4DB4-AC93-A35CEB07CC78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -356,9 +365,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -400,16 +409,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$E$2:$E$15</c:f>
+              <c:f>Bankrolls!$E$2:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>15.44</c:v>
                 </c:pt>
@@ -450,6 +462,9 @@
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>61.330000000000013</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>61.330000000000013</c:v>
                 </c:pt>
               </c:numCache>
@@ -458,7 +473,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C116-462D-B1A4-45321740E0CC}"/>
+              <c16:uniqueId val="{00000001-E789-4DB4-AC93-A35CEB07CC78}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -671,9 +686,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -715,16 +730,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$I$2:$I$15</c:f>
+              <c:f>Bankrolls!$I$2:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -766,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>31.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -773,7 +794,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F20D-4F72-817E-2A41BAD7A4A7}"/>
+              <c16:uniqueId val="{00000000-059A-45DF-BD5E-AE32B2D36E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -794,9 +815,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -838,16 +859,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$J$2:$J$15</c:f>
+              <c:f>Bankrolls!$J$2:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -888,6 +912,9 @@
                   <c:v>34.08</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>61.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>61.62</c:v>
                 </c:pt>
               </c:numCache>
@@ -896,7 +923,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F20D-4F72-817E-2A41BAD7A4A7}"/>
+              <c16:uniqueId val="{00000001-059A-45DF-BD5E-AE32B2D36E9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1109,9 +1136,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -1153,16 +1180,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$N$2:$N$15</c:f>
+              <c:f>Bankrolls!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>51.61</c:v>
                 </c:pt>
@@ -1204,6 +1234,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>468.02999999999992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>483.1099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,7 +1244,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6CCB-4CA6-8B50-A723153327A0}"/>
+              <c16:uniqueId val="{00000000-9738-4DBD-928B-3FFD76805186}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1232,9 +1265,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -1276,16 +1309,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$O$2:$O$15</c:f>
+              <c:f>Bankrolls!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
@@ -1326,6 +1362,9 @@
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10.050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>10.050000000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1334,7 +1373,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6CCB-4CA6-8B50-A723153327A0}"/>
+              <c16:uniqueId val="{00000001-9738-4DBD-928B-3FFD76805186}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1547,9 +1586,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -1591,16 +1630,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$S$2:$S$15</c:f>
+              <c:f>Bankrolls!$S$2:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1642,6 +1684,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>83.640000000000015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>116.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1694,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DBD4-4F74-B56F-8A55AB727B5A}"/>
+              <c16:uniqueId val="{00000000-9254-4705-A219-EBF39DA2E7C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1670,9 +1715,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$15</c:f>
+              <c:f>Bankrolls!$A$2:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>4 09</c:v>
                 </c:pt>
@@ -1714,16 +1759,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>5 31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6 07</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$T$2:$T$15</c:f>
+              <c:f>Bankrolls!$T$2:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>26.12</c:v>
                 </c:pt>
@@ -1764,6 +1812,9 @@
                   <c:v>107.23</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>107.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>107.23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1772,7 +1823,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DBD4-4F74-B56F-8A55AB727B5A}"/>
+              <c16:uniqueId val="{00000001-9254-4705-A219-EBF39DA2E7C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2354,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3192,6 +3243,59 @@
         <v>65.2</v>
       </c>
     </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>5.27</v>
+      </c>
+      <c r="D16">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E16">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H16">
+        <v>-17.89</v>
+      </c>
+      <c r="I16">
+        <v>43.73</v>
+      </c>
+      <c r="J16">
+        <v>61.62</v>
+      </c>
+      <c r="M16">
+        <v>473.06</v>
+      </c>
+      <c r="N16">
+        <v>483.1099999999999</v>
+      </c>
+      <c r="O16">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R16">
+        <v>9.0000000000000249</v>
+      </c>
+      <c r="S16">
+        <v>116.23</v>
+      </c>
+      <c r="T16">
+        <v>107.23</v>
+      </c>
+      <c r="V16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>-65.2</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>65.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46829526-6584-4886-B910-D3EB139CEA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11135C5-283E-4321-BC63-085E681119D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,9 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2407,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,7 +2492,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
@@ -2546,7 +2548,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3">
@@ -2596,7 +2598,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4">
@@ -2646,7 +2648,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5">
@@ -2702,7 +2704,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C6">
@@ -2755,7 +2757,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C7">
@@ -2808,7 +2810,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -2861,7 +2863,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C9">
@@ -2920,7 +2922,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C10">
@@ -2970,7 +2972,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C11">
@@ -3026,7 +3028,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C12">
@@ -3076,7 +3078,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C13">
@@ -3129,7 +3131,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C14">
@@ -3188,7 +3190,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C15">
@@ -3244,7 +3246,7 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C16">

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07530A-758F-43CA-99F2-0ACA3CCAB13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC5845-827C-4013-8EAF-1534B6A0C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>06/10</t>
+  </si>
+  <si>
+    <t>06/14</t>
   </si>
 </sst>
 </file>
@@ -240,9 +243,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$17</c:f>
+              <c:f>Bankrolls!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04/09</c:v>
                 </c:pt>
@@ -290,16 +293,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>06/10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$17</c:f>
+              <c:f>Bankrolls!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -347,6 +353,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>46.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,7 +363,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACD3-4DA4-B5CC-10FF4D56A189}"/>
+              <c16:uniqueId val="{00000000-C935-46A9-86F7-8552BF5C1AF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -566,9 +575,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$17</c:f>
+              <c:f>Bankrolls!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04/09</c:v>
                 </c:pt>
@@ -616,16 +625,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>06/10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$17</c:f>
+              <c:f>Bankrolls!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -673,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-77.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-123.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -680,7 +695,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-64E3-40B2-BC39-E8310C4F26C8}"/>
+              <c16:uniqueId val="{00000000-CC46-4B2D-AABD-9C81DE925355}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -891,9 +906,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$17</c:f>
+              <c:f>Bankrolls!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04/09</c:v>
                 </c:pt>
@@ -941,16 +956,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>06/10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$17</c:f>
+              <c:f>Bankrolls!$M$2:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -998,6 +1016,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>542.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>522.22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1005,7 +1026,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1C9B-4038-B5CD-955AD0A9FC2A}"/>
+              <c16:uniqueId val="{00000000-2D1A-4752-BE52-71DD5B65BCE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1216,9 +1237,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$17</c:f>
+              <c:f>Bankrolls!$A$2:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>04/09</c:v>
                 </c:pt>
@@ -1266,16 +1287,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>06/10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$17</c:f>
+              <c:f>Bankrolls!$R$2:$R$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1323,6 +1347,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>-40.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-21.859999999999971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1330,7 +1357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A321-4261-841C-8FB040F9A3C8}"/>
+              <c16:uniqueId val="{00000000-FE7F-4AE6-A642-419A9966A5CF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1470,13 +1497,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1506,13 +1533,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1542,13 +1569,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1578,13 +1605,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1913,7 +1940,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2851,7 +2878,57 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18"/>
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18">
+        <v>132.82</v>
+      </c>
+      <c r="D18">
+        <v>194.15</v>
+      </c>
+      <c r="E18">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H18">
+        <v>-123.74</v>
+      </c>
+      <c r="I18">
+        <v>22.15</v>
+      </c>
+      <c r="J18">
+        <v>145.88999999999999</v>
+      </c>
+      <c r="M18">
+        <v>522.22</v>
+      </c>
+      <c r="N18">
+        <v>532.26999999999987</v>
+      </c>
+      <c r="O18">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R18">
+        <v>-21.859999999999971</v>
+      </c>
+      <c r="S18">
+        <v>85.37</v>
+      </c>
+      <c r="T18">
+        <v>107.23</v>
+      </c>
+      <c r="V18" t="s">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>-65.2</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>65.2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC5845-827C-4013-8EAF-1534B6A0C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47CD373-C56B-4ABB-B6E2-B9CCC0C8DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -47,60 +47,6 @@
   </si>
   <si>
     <t>Cheyenne</t>
-  </si>
-  <si>
-    <t>04/09</t>
-  </si>
-  <si>
-    <t>Didn't play</t>
-  </si>
-  <si>
-    <t>04/16</t>
-  </si>
-  <si>
-    <t>04/19</t>
-  </si>
-  <si>
-    <t>04/24</t>
-  </si>
-  <si>
-    <t>04/26</t>
-  </si>
-  <si>
-    <t>04/29</t>
-  </si>
-  <si>
-    <t>05/04</t>
-  </si>
-  <si>
-    <t>05/13</t>
-  </si>
-  <si>
-    <t>05/17</t>
-  </si>
-  <si>
-    <t>05/20</t>
-  </si>
-  <si>
-    <t>05/24</t>
-  </si>
-  <si>
-    <t>05/27</t>
-  </si>
-  <si>
-    <t>05/28</t>
-  </si>
-  <si>
-    <t>05/31</t>
-  </si>
-  <si>
-    <t>06/07</t>
-  </si>
-  <si>
-    <t>06/10</t>
-  </si>
-  <si>
-    <t>06/14</t>
   </si>
 </sst>
 </file>
@@ -242,63 +188,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>04/09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>04/26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04/29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>05/24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>05/27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>05/28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>05/31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -306,64 +202,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>-15.44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-25.27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.61</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-23.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.3299999999999981</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-31.33</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>124.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>104.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64.44</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70.58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30.58</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.58</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25.27</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.27</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>46.11</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>132.82</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C935-46A9-86F7-8552BF5C1AF3}"/>
+              <c16:uniqueId val="{00000000-5275-4735-B631-2ADA4E18B04D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -386,7 +231,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -574,63 +419,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>04/09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>04/26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04/29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>05/24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>05/27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>05/28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>05/31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -638,64 +433,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.42</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>24.21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.77</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.92</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-31.62</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-31.62</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-30.22</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-17.89</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-77.89</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-123.74</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CC46-4B2D-AABD-9C81DE925355}"/>
+              <c16:uniqueId val="{00000000-116A-44D4-B846-A3D941BF534C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,7 +462,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -905,63 +649,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>04/09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>04/26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04/29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>05/24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>05/27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>05/28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>05/31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -969,64 +663,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>41.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>88.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>144.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>157.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>163.77000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>183.77</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>265.20999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>300.48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>390.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>462.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>457.98</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>457.98</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>473.06</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>542.22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>522.22</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D1A-4752-BE52-71DD5B65BCE7}"/>
+              <c16:uniqueId val="{00000000-85E8-46FE-A0F0-C861C826F0A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1049,7 +692,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1236,63 +879,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>04/09</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>04/16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>04/19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>04/24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>04/26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>04/29</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>05/04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>05/13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>05/17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>05/20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>05/24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>05/27</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>05/28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>05/31</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>06/07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>06/10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>06/14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1300,64 +893,13 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>-26.12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-19.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-42.599999999999987</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-40.099999999999987</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-51.97999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-61.86999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-69.61999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-69.61999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-79.61999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-87.22999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-17.68999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-12.319999999999981</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-12.319999999999981</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-23.589999999999979</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0000000000000249</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-40.999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-21.859999999999971</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE7F-4AE6-A642-419A9966A5CF}"/>
+              <c16:uniqueId val="{00000000-F18F-4863-B88B-0184B67C020B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1380,7 +922,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1937,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,917 +1560,13 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>-15.44</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>15.44</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>41.56</v>
-      </c>
-      <c r="N2">
-        <v>51.61</v>
-      </c>
-      <c r="O2">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R2">
-        <v>-26.12</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>26.12</v>
-      </c>
-      <c r="V2" t="s">
-        <v>10</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>-25.27</v>
-      </c>
-      <c r="D3">
-        <v>10.17</v>
-      </c>
-      <c r="E3">
-        <v>35.44</v>
-      </c>
-      <c r="H3">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="I3">
-        <v>24.56</v>
-      </c>
-      <c r="J3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>88.26</v>
-      </c>
-      <c r="N3">
-        <v>98.31</v>
-      </c>
-      <c r="O3">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R3">
-        <v>-19.45</v>
-      </c>
-      <c r="S3">
-        <v>16.670000000000002</v>
-      </c>
-      <c r="T3">
-        <v>36.119999999999997</v>
-      </c>
-      <c r="W3">
-        <v>-20</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>20</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>-13.61</v>
-      </c>
-      <c r="D4">
-        <v>31.66</v>
-      </c>
-      <c r="E4">
-        <v>45.27</v>
-      </c>
-      <c r="H4">
-        <v>51.42</v>
-      </c>
-      <c r="I4">
-        <v>71.42</v>
-      </c>
-      <c r="J4">
-        <v>20</v>
-      </c>
-      <c r="M4">
-        <v>90</v>
-      </c>
-      <c r="N4">
-        <v>100.05</v>
-      </c>
-      <c r="O4">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R4">
-        <v>-42.599999999999987</v>
-      </c>
-      <c r="S4">
-        <v>16.850000000000001</v>
-      </c>
-      <c r="T4">
-        <v>59.45</v>
-      </c>
-      <c r="W4">
-        <v>-25.2</v>
-      </c>
-      <c r="X4">
-        <v>4.8</v>
-      </c>
-      <c r="Y4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>-23.61</v>
-      </c>
-      <c r="D5">
-        <v>21.66</v>
-      </c>
-      <c r="E5">
-        <v>45.27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5">
-        <v>51.42</v>
-      </c>
-      <c r="I5">
-        <v>71.42</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
-      </c>
-      <c r="M5">
-        <v>80</v>
-      </c>
-      <c r="N5">
-        <v>90.05</v>
-      </c>
-      <c r="O5">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R5">
-        <v>-40.099999999999987</v>
-      </c>
-      <c r="S5">
-        <v>19.350000000000001</v>
-      </c>
-      <c r="T5">
-        <v>59.45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>10</v>
-      </c>
-      <c r="W5">
-        <v>-25.2</v>
-      </c>
-      <c r="X5">
-        <v>4.8</v>
-      </c>
-      <c r="Y5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>-1.3299999999999981</v>
-      </c>
-      <c r="D6">
-        <v>43.94</v>
-      </c>
-      <c r="E6">
-        <v>45.27</v>
-      </c>
-      <c r="H6">
-        <v>31.42</v>
-      </c>
-      <c r="I6">
-        <v>51.42</v>
-      </c>
-      <c r="J6">
-        <v>20</v>
-      </c>
-      <c r="M6">
-        <v>144.6</v>
-      </c>
-      <c r="N6">
-        <v>154.65</v>
-      </c>
-      <c r="O6">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R6">
-        <v>-51.97999999999999</v>
-      </c>
-      <c r="S6">
-        <v>18.12</v>
-      </c>
-      <c r="T6">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="V6" t="s">
-        <v>10</v>
-      </c>
-      <c r="W6">
-        <v>-25.2</v>
-      </c>
-      <c r="X6">
-        <v>4.8</v>
-      </c>
-      <c r="Y6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>-31.33</v>
-      </c>
-      <c r="D7">
-        <v>13.94</v>
-      </c>
-      <c r="E7">
-        <v>45.27</v>
-      </c>
-      <c r="H7">
-        <v>24.21</v>
-      </c>
-      <c r="I7">
-        <v>44.21</v>
-      </c>
-      <c r="J7">
-        <v>20</v>
-      </c>
-      <c r="M7">
-        <v>157.31</v>
-      </c>
-      <c r="N7">
-        <v>167.36</v>
-      </c>
-      <c r="O7">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R7">
-        <v>-61.86999999999999</v>
-      </c>
-      <c r="S7">
-        <v>20.11</v>
-      </c>
-      <c r="T7">
-        <v>81.97999999999999</v>
-      </c>
-      <c r="V7" t="s">
-        <v>10</v>
-      </c>
-      <c r="W7">
-        <v>-25.2</v>
-      </c>
-      <c r="X7">
-        <v>4.8</v>
-      </c>
-      <c r="Y7">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8">
-        <v>124.44</v>
-      </c>
-      <c r="D8">
-        <v>185.77</v>
-      </c>
-      <c r="E8">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8">
-        <v>24.21</v>
-      </c>
-      <c r="I8">
-        <v>44.21</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>163.77000000000001</v>
-      </c>
-      <c r="N8">
-        <v>173.82</v>
-      </c>
-      <c r="O8">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R8">
-        <v>-69.61999999999999</v>
-      </c>
-      <c r="S8">
-        <v>22.25</v>
-      </c>
-      <c r="T8">
-        <v>91.86999999999999</v>
-      </c>
-      <c r="W8">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>104.44</v>
-      </c>
-      <c r="D9">
-        <v>165.77</v>
-      </c>
-      <c r="E9">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9">
-        <v>24.21</v>
-      </c>
-      <c r="I9">
-        <v>44.21</v>
-      </c>
-      <c r="J9">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>183.77</v>
-      </c>
-      <c r="N9">
-        <v>193.82</v>
-      </c>
-      <c r="O9">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9">
-        <v>-69.61999999999999</v>
-      </c>
-      <c r="S9">
-        <v>22.25</v>
-      </c>
-      <c r="T9">
-        <v>91.86999999999999</v>
-      </c>
-      <c r="V9" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9">
-        <v>-35.200000000000003</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>35.200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10">
-        <v>64.44</v>
-      </c>
-      <c r="D10">
-        <v>125.77</v>
-      </c>
-      <c r="E10">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H10">
-        <v>12.77</v>
-      </c>
-      <c r="I10">
-        <v>32.770000000000003</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="M10">
-        <v>265.20999999999998</v>
-      </c>
-      <c r="N10">
-        <v>275.26</v>
-      </c>
-      <c r="O10">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R10">
-        <v>-79.61999999999999</v>
-      </c>
-      <c r="S10">
-        <v>12.25</v>
-      </c>
-      <c r="T10">
-        <v>91.86999999999999</v>
-      </c>
-      <c r="W10">
-        <v>-45.2</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11">
-        <v>70.58</v>
-      </c>
-      <c r="D11">
-        <v>131.91</v>
-      </c>
-      <c r="E11">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>12.77</v>
-      </c>
-      <c r="I11">
-        <v>32.770000000000003</v>
-      </c>
-      <c r="J11">
-        <v>20</v>
-      </c>
-      <c r="M11">
-        <v>300.48</v>
-      </c>
-      <c r="N11">
-        <v>310.52999999999997</v>
-      </c>
-      <c r="O11">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R11">
-        <v>-87.22999999999999</v>
-      </c>
-      <c r="S11">
-        <v>12.39</v>
-      </c>
-      <c r="T11">
-        <v>99.61999999999999</v>
-      </c>
-      <c r="V11" t="s">
-        <v>10</v>
-      </c>
-      <c r="W11">
-        <v>-45.2</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>45.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>30.58</v>
-      </c>
-      <c r="D12">
-        <v>91.91</v>
-      </c>
-      <c r="E12">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H12">
-        <v>5.92</v>
-      </c>
-      <c r="I12">
-        <v>25.92</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="M12">
-        <v>390.63</v>
-      </c>
-      <c r="N12">
-        <v>400.67999999999989</v>
-      </c>
-      <c r="O12">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R12">
-        <v>-17.68999999999998</v>
-      </c>
-      <c r="S12">
-        <v>89.54</v>
-      </c>
-      <c r="T12">
-        <v>107.23</v>
-      </c>
-      <c r="W12">
-        <v>-65.2</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13">
-        <v>10.58</v>
-      </c>
-      <c r="D13">
-        <v>71.91</v>
-      </c>
-      <c r="E13">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H13">
-        <v>-31.62</v>
-      </c>
-      <c r="I13">
-        <v>2.4600000000000009</v>
-      </c>
-      <c r="J13">
-        <v>34.08</v>
-      </c>
-      <c r="M13">
-        <v>462.8</v>
-      </c>
-      <c r="N13">
-        <v>472.84999999999991</v>
-      </c>
-      <c r="O13">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R13">
-        <v>-12.319999999999981</v>
-      </c>
-      <c r="S13">
-        <v>94.910000000000011</v>
-      </c>
-      <c r="T13">
-        <v>107.23</v>
-      </c>
-      <c r="V13" t="s">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>-65.2</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>15.4</v>
-      </c>
-      <c r="D14">
-        <v>76.72999999999999</v>
-      </c>
-      <c r="E14">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>-31.62</v>
-      </c>
-      <c r="I14">
-        <v>2.4600000000000009</v>
-      </c>
-      <c r="J14">
-        <v>34.08</v>
-      </c>
-      <c r="M14">
-        <v>457.98</v>
-      </c>
-      <c r="N14">
-        <v>468.02999999999992</v>
-      </c>
-      <c r="O14">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14">
-        <v>-12.319999999999981</v>
-      </c>
-      <c r="S14">
-        <v>94.910000000000011</v>
-      </c>
-      <c r="T14">
-        <v>107.23</v>
-      </c>
-      <c r="V14" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14">
-        <v>-65.2</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15">
-        <v>25.27</v>
-      </c>
-      <c r="D15">
-        <v>86.6</v>
-      </c>
-      <c r="E15">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H15">
-        <v>-30.22</v>
-      </c>
-      <c r="I15">
-        <v>31.4</v>
-      </c>
-      <c r="J15">
-        <v>61.62</v>
-      </c>
-      <c r="L15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>457.98</v>
-      </c>
-      <c r="N15">
-        <v>468.02999999999992</v>
-      </c>
-      <c r="O15">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R15">
-        <v>-23.589999999999979</v>
-      </c>
-      <c r="S15">
-        <v>83.640000000000015</v>
-      </c>
-      <c r="T15">
-        <v>107.23</v>
-      </c>
-      <c r="V15" t="s">
-        <v>10</v>
-      </c>
-      <c r="W15">
-        <v>-65.2</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
-        <v>5.27</v>
-      </c>
-      <c r="D16">
-        <v>66.599999999999994</v>
-      </c>
-      <c r="E16">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H16">
-        <v>-17.89</v>
-      </c>
-      <c r="I16">
-        <v>43.73</v>
-      </c>
-      <c r="J16">
-        <v>61.62</v>
-      </c>
-      <c r="M16">
-        <v>473.06</v>
-      </c>
-      <c r="N16">
-        <v>483.1099999999999</v>
-      </c>
-      <c r="O16">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R16">
-        <v>9.0000000000000249</v>
-      </c>
-      <c r="S16">
-        <v>116.23</v>
-      </c>
-      <c r="T16">
-        <v>107.23</v>
-      </c>
-      <c r="V16" t="s">
-        <v>10</v>
-      </c>
-      <c r="W16">
-        <v>-65.2</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>46.11</v>
-      </c>
-      <c r="D17">
-        <v>107.44</v>
-      </c>
-      <c r="E17">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H17">
-        <v>-77.89</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>77.89</v>
-      </c>
-      <c r="M17">
-        <v>542.22</v>
-      </c>
-      <c r="N17">
-        <v>552.26999999999987</v>
-      </c>
-      <c r="O17">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R17">
-        <v>-40.999999999999972</v>
-      </c>
-      <c r="S17">
-        <v>66.23</v>
-      </c>
-      <c r="T17">
-        <v>107.23</v>
-      </c>
-      <c r="V17" t="s">
-        <v>10</v>
-      </c>
-      <c r="W17">
-        <v>-65.2</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18">
-        <v>132.82</v>
-      </c>
-      <c r="D18">
-        <v>194.15</v>
-      </c>
-      <c r="E18">
-        <v>61.330000000000013</v>
-      </c>
-      <c r="H18">
-        <v>-123.74</v>
-      </c>
-      <c r="I18">
-        <v>22.15</v>
-      </c>
-      <c r="J18">
-        <v>145.88999999999999</v>
-      </c>
-      <c r="M18">
-        <v>522.22</v>
-      </c>
-      <c r="N18">
-        <v>532.26999999999987</v>
-      </c>
-      <c r="O18">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="R18">
-        <v>-21.859999999999971</v>
-      </c>
-      <c r="S18">
-        <v>85.37</v>
-      </c>
-      <c r="T18">
-        <v>107.23</v>
-      </c>
-      <c r="V18" t="s">
-        <v>10</v>
-      </c>
-      <c r="W18">
-        <v>-65.2</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>65.2</v>
-      </c>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47CD373-C56B-4ABB-B6E2-B9CCC0C8DFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739F830-2945-42FD-A8BA-C31ED288639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -46,7 +46,61 @@
     <t>Cedric</t>
   </si>
   <si>
-    <t>Cheyenne</t>
+    <t>04/09/21</t>
+  </si>
+  <si>
+    <t>Didn't play</t>
+  </si>
+  <si>
+    <t>04/16/21</t>
+  </si>
+  <si>
+    <t>04/19/21</t>
+  </si>
+  <si>
+    <t>04/24/21</t>
+  </si>
+  <si>
+    <t>04/26/21</t>
+  </si>
+  <si>
+    <t>04/29/21</t>
+  </si>
+  <si>
+    <t>05/04/21</t>
+  </si>
+  <si>
+    <t>05/13/21</t>
+  </si>
+  <si>
+    <t>05/17/21</t>
+  </si>
+  <si>
+    <t>05/20/21</t>
+  </si>
+  <si>
+    <t>05/24/21</t>
+  </si>
+  <si>
+    <t>05/27/21</t>
+  </si>
+  <si>
+    <t>05/28/21</t>
+  </si>
+  <si>
+    <t>05/31/21</t>
+  </si>
+  <si>
+    <t>06/07/21</t>
+  </si>
+  <si>
+    <t>06/10/21</t>
+  </si>
+  <si>
+    <t>06/14/21</t>
+  </si>
+  <si>
+    <t>06/15/21</t>
   </si>
 </sst>
 </file>
@@ -188,27 +242,134 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>04/09/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04/26/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/20/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>05/28/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>06/15/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$18</c:f>
+              <c:f>Bankrolls!$C$2:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-15.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-13.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-23.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.3299999999999981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-31.33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>124.44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104.44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.58</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25.27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.82</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>139.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5275-4735-B631-2ADA4E18B04D}"/>
+              <c16:uniqueId val="{00000000-CDAC-49FA-9FDB-8E08BA164606}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -231,7 +392,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -419,27 +580,134 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>04/09/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04/26/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/20/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>05/28/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>06/15/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$18</c:f>
+              <c:f>Bankrolls!$H$2:$H$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.92</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-31.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-31.62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-30.22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-17.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-77.89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-123.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-130.32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-116A-44D4-B846-A3D941BF534C}"/>
+              <c16:uniqueId val="{00000000-331B-44D2-9E69-E2E18F69FE2A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -462,7 +730,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -649,27 +917,134 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>04/09/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04/26/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/20/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>05/28/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>06/15/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$18</c:f>
+              <c:f>Bankrolls!$M$2:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>41.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>163.77000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>183.77</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>265.20999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>390.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>462.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>457.98</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>457.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>473.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>542.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>522.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>522.22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-85E8-46FE-A0F0-C861C826F0A2}"/>
+              <c16:uniqueId val="{00000000-827F-4DE5-96C8-A9BDE55AC5B3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -692,7 +1067,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -879,27 +1254,134 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>Bankrolls!$A$2:$A$18</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="17"/>
-              </c:numCache>
-            </c:numRef>
+            <c:strRef>
+              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>04/09/21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>04/16/21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>04/19/21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>04/24/21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>04/26/21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>04/29/21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>05/04/21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>05/13/21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>05/17/21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>05/20/21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>05/24/21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>05/27/21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>05/28/21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>05/31/21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>06/07/21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>06/10/21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>06/14/21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>06/15/21</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$18</c:f>
+              <c:f>Bankrolls!$R$2:$R$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-26.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-42.599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-51.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-61.86999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-69.61999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-69.61999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-79.61999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-87.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-17.68999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-12.319999999999981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12.319999999999981</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-23.589999999999979</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0000000000000249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-40.999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-21.859999999999971</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-21.859999999999971</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F18F-4863-B88B-0184B67C020B}"/>
+              <c16:uniqueId val="{00000000-29AD-4761-9FA2-7FE0BA8D6C45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -922,7 +1404,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="@" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1037,16 +1519,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1074,14 +1556,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1110,15 +1592,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1145,16 +1627,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1479,22 +1961,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y19"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="21" max="21" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,27 +2028,777 @@
       <c r="T1" t="s">
         <v>4</v>
       </c>
-      <c r="V1" t="s">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>4</v>
+      <c r="C2">
+        <v>-15.44</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>15.44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>41.56</v>
+      </c>
+      <c r="N2">
+        <v>51.61</v>
+      </c>
+      <c r="O2">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R2">
+        <v>-26.12</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>26.12</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>-25.27</v>
+      </c>
+      <c r="D3">
+        <v>10.17</v>
+      </c>
+      <c r="E3">
+        <v>35.44</v>
+      </c>
+      <c r="H3">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I3">
+        <v>24.56</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>88.26</v>
+      </c>
+      <c r="N3">
+        <v>98.31</v>
+      </c>
+      <c r="O3">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R3">
+        <v>-19.45</v>
+      </c>
+      <c r="S3">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="T3">
+        <v>36.119999999999997</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>-13.61</v>
+      </c>
+      <c r="D4">
+        <v>31.66</v>
+      </c>
+      <c r="E4">
+        <v>45.27</v>
+      </c>
+      <c r="H4">
+        <v>51.42</v>
+      </c>
+      <c r="I4">
+        <v>71.42</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>90</v>
+      </c>
+      <c r="N4">
+        <v>100.05</v>
+      </c>
+      <c r="O4">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R4">
+        <v>-42.599999999999987</v>
+      </c>
+      <c r="S4">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="T4">
+        <v>59.45</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>-23.61</v>
+      </c>
+      <c r="D5">
+        <v>21.66</v>
+      </c>
+      <c r="E5">
+        <v>45.27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>51.42</v>
+      </c>
+      <c r="I5">
+        <v>71.42</v>
+      </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>80</v>
+      </c>
+      <c r="N5">
+        <v>90.05</v>
+      </c>
+      <c r="O5">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R5">
+        <v>-40.099999999999987</v>
+      </c>
+      <c r="S5">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="T5">
+        <v>59.45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>-1.3299999999999981</v>
+      </c>
+      <c r="D6">
+        <v>43.94</v>
+      </c>
+      <c r="E6">
+        <v>45.27</v>
+      </c>
+      <c r="H6">
+        <v>31.42</v>
+      </c>
+      <c r="I6">
+        <v>51.42</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="M6">
+        <v>144.6</v>
+      </c>
+      <c r="N6">
+        <v>154.65</v>
+      </c>
+      <c r="O6">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R6">
+        <v>-51.97999999999999</v>
+      </c>
+      <c r="S6">
+        <v>18.12</v>
+      </c>
+      <c r="T6">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>-31.33</v>
+      </c>
+      <c r="D7">
+        <v>13.94</v>
+      </c>
+      <c r="E7">
+        <v>45.27</v>
+      </c>
+      <c r="H7">
+        <v>24.21</v>
+      </c>
+      <c r="I7">
+        <v>44.21</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="M7">
+        <v>157.31</v>
+      </c>
+      <c r="N7">
+        <v>167.36</v>
+      </c>
+      <c r="O7">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R7">
+        <v>-61.86999999999999</v>
+      </c>
+      <c r="S7">
+        <v>20.11</v>
+      </c>
+      <c r="T7">
+        <v>81.97999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>124.44</v>
+      </c>
+      <c r="D8">
+        <v>185.77</v>
+      </c>
+      <c r="E8">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>24.21</v>
+      </c>
+      <c r="I8">
+        <v>44.21</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>163.77000000000001</v>
+      </c>
+      <c r="N8">
+        <v>173.82</v>
+      </c>
+      <c r="O8">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R8">
+        <v>-69.61999999999999</v>
+      </c>
+      <c r="S8">
+        <v>22.25</v>
+      </c>
+      <c r="T8">
+        <v>91.86999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>104.44</v>
+      </c>
+      <c r="D9">
+        <v>165.77</v>
+      </c>
+      <c r="E9">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>24.21</v>
+      </c>
+      <c r="I9">
+        <v>44.21</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>183.77</v>
+      </c>
+      <c r="N9">
+        <v>193.82</v>
+      </c>
+      <c r="O9">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R9">
+        <v>-69.61999999999999</v>
+      </c>
+      <c r="S9">
+        <v>22.25</v>
+      </c>
+      <c r="T9">
+        <v>91.86999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>64.44</v>
+      </c>
+      <c r="D10">
+        <v>125.77</v>
+      </c>
+      <c r="E10">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H10">
+        <v>12.77</v>
+      </c>
+      <c r="I10">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="M10">
+        <v>265.20999999999998</v>
+      </c>
+      <c r="N10">
+        <v>275.26</v>
+      </c>
+      <c r="O10">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R10">
+        <v>-79.61999999999999</v>
+      </c>
+      <c r="S10">
+        <v>12.25</v>
+      </c>
+      <c r="T10">
+        <v>91.86999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>70.58</v>
+      </c>
+      <c r="D11">
+        <v>131.91</v>
+      </c>
+      <c r="E11">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>12.77</v>
+      </c>
+      <c r="I11">
+        <v>32.770000000000003</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>300.48</v>
+      </c>
+      <c r="N11">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="O11">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R11">
+        <v>-87.22999999999999</v>
+      </c>
+      <c r="S11">
+        <v>12.39</v>
+      </c>
+      <c r="T11">
+        <v>99.61999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>30.58</v>
+      </c>
+      <c r="D12">
+        <v>91.91</v>
+      </c>
+      <c r="E12">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H12">
+        <v>5.92</v>
+      </c>
+      <c r="I12">
+        <v>25.92</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="M12">
+        <v>390.63</v>
+      </c>
+      <c r="N12">
+        <v>400.67999999999989</v>
+      </c>
+      <c r="O12">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R12">
+        <v>-17.68999999999998</v>
+      </c>
+      <c r="S12">
+        <v>89.54</v>
+      </c>
+      <c r="T12">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>10.58</v>
+      </c>
+      <c r="D13">
+        <v>71.91</v>
+      </c>
+      <c r="E13">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H13">
+        <v>-31.62</v>
+      </c>
+      <c r="I13">
+        <v>2.4600000000000009</v>
+      </c>
+      <c r="J13">
+        <v>34.08</v>
+      </c>
+      <c r="M13">
+        <v>462.8</v>
+      </c>
+      <c r="N13">
+        <v>472.84999999999991</v>
+      </c>
+      <c r="O13">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R13">
+        <v>-12.319999999999981</v>
+      </c>
+      <c r="S13">
+        <v>94.910000000000011</v>
+      </c>
+      <c r="T13">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>15.4</v>
+      </c>
+      <c r="D14">
+        <v>76.72999999999999</v>
+      </c>
+      <c r="E14">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>-31.62</v>
+      </c>
+      <c r="I14">
+        <v>2.4600000000000009</v>
+      </c>
+      <c r="J14">
+        <v>34.08</v>
+      </c>
+      <c r="M14">
+        <v>457.98</v>
+      </c>
+      <c r="N14">
+        <v>468.02999999999992</v>
+      </c>
+      <c r="O14">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>-12.319999999999981</v>
+      </c>
+      <c r="S14">
+        <v>94.910000000000011</v>
+      </c>
+      <c r="T14">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>25.27</v>
+      </c>
+      <c r="D15">
+        <v>86.6</v>
+      </c>
+      <c r="E15">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H15">
+        <v>-30.22</v>
+      </c>
+      <c r="I15">
+        <v>31.4</v>
+      </c>
+      <c r="J15">
+        <v>61.62</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>457.98</v>
+      </c>
+      <c r="N15">
+        <v>468.02999999999992</v>
+      </c>
+      <c r="O15">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R15">
+        <v>-23.589999999999979</v>
+      </c>
+      <c r="S15">
+        <v>83.640000000000015</v>
+      </c>
+      <c r="T15">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>5.27</v>
+      </c>
+      <c r="D16">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="E16">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H16">
+        <v>-17.89</v>
+      </c>
+      <c r="I16">
+        <v>43.73</v>
+      </c>
+      <c r="J16">
+        <v>61.62</v>
+      </c>
+      <c r="M16">
+        <v>473.06</v>
+      </c>
+      <c r="N16">
+        <v>483.1099999999999</v>
+      </c>
+      <c r="O16">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R16">
+        <v>9.0000000000000249</v>
+      </c>
+      <c r="S16">
+        <v>116.23</v>
+      </c>
+      <c r="T16">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>46.11</v>
+      </c>
+      <c r="D17">
+        <v>107.44</v>
+      </c>
+      <c r="E17">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H17">
+        <v>-77.89</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>77.89</v>
+      </c>
+      <c r="M17">
+        <v>542.22</v>
+      </c>
+      <c r="N17">
+        <v>552.26999999999987</v>
+      </c>
+      <c r="O17">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R17">
+        <v>-40.999999999999972</v>
+      </c>
+      <c r="S17">
+        <v>66.23</v>
+      </c>
+      <c r="T17">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>132.82</v>
+      </c>
+      <c r="D18">
+        <v>194.15</v>
+      </c>
+      <c r="E18">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H18">
+        <v>-123.74</v>
+      </c>
+      <c r="I18">
+        <v>22.15</v>
+      </c>
+      <c r="J18">
+        <v>145.88999999999999</v>
+      </c>
+      <c r="M18">
+        <v>522.22</v>
+      </c>
+      <c r="N18">
+        <v>532.26999999999987</v>
+      </c>
+      <c r="O18">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R18">
+        <v>-21.859999999999971</v>
+      </c>
+      <c r="S18">
+        <v>85.37</v>
+      </c>
+      <c r="T18">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>139.4</v>
+      </c>
+      <c r="D19">
+        <v>200.73</v>
+      </c>
+      <c r="E19">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H19">
+        <v>-130.32</v>
+      </c>
+      <c r="I19">
+        <v>15.57</v>
+      </c>
+      <c r="J19">
+        <v>145.88999999999999</v>
+      </c>
+      <c r="L19" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19">
+        <v>522.22</v>
+      </c>
+      <c r="N19">
+        <v>532.26999999999987</v>
+      </c>
+      <c r="O19">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>-21.859999999999971</v>
+      </c>
+      <c r="S19">
+        <v>85.37</v>
+      </c>
+      <c r="T19">
+        <v>107.23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6739F830-2945-42FD-A8BA-C31ED288639E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4847A235-BBD5-4A50-A4C0-0F756C4C21D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>06/15/21</t>
+  </si>
+  <si>
+    <t>06/17/21</t>
   </si>
 </sst>
 </file>
@@ -243,9 +246,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:f>Bankrolls!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -299,16 +302,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>06/15/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$19</c:f>
+              <c:f>Bankrolls!$C$2:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -362,6 +368,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>139.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>202.13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -369,7 +378,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CDAC-49FA-9FDB-8E08BA164606}"/>
+              <c16:uniqueId val="{00000000-1DC6-4D2E-80C6-754EDFDB9A38}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -581,9 +590,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:f>Bankrolls!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -637,16 +646,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>06/15/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$19</c:f>
+              <c:f>Bankrolls!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -700,6 +712,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-130.32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-130.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +722,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-331B-44D2-9E69-E2E18F69FE2A}"/>
+              <c16:uniqueId val="{00000000-9CBD-442A-B637-8C31B74B5F84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -918,9 +933,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:f>Bankrolls!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -974,16 +989,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>06/15/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$19</c:f>
+              <c:f>Bankrolls!$M$2:$M$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1037,6 +1055,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>522.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>483.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,7 +1065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-827F-4DE5-96C8-A9BDE55AC5B3}"/>
+              <c16:uniqueId val="{00000000-98AE-4B5D-8B41-06B75DDA382A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1255,9 +1276,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$19</c:f>
+              <c:f>Bankrolls!$A$2:$A$20</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1311,16 +1332,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>06/15/21</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>06/17/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$19</c:f>
+              <c:f>Bankrolls!$R$2:$R$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1374,6 +1398,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-21.859999999999971</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-41.859999999999971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1381,7 +1408,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29AD-4761-9FA2-7FE0BA8D6C45}"/>
+              <c16:uniqueId val="{00000000-C62E-4936-99D0-D32F10039C7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1520,15 +1547,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1556,15 +1583,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1592,15 +1619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1961,10 +1988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,7 +2724,7 @@
         <v>542.22</v>
       </c>
       <c r="N17">
-        <v>552.26999999999987</v>
+        <v>552.27</v>
       </c>
       <c r="O17">
         <v>10.050000000000001</v>
@@ -2797,6 +2824,47 @@
         <v>85.37</v>
       </c>
       <c r="T19">
+        <v>107.23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>202.13</v>
+      </c>
+      <c r="D20">
+        <v>263.45999999999998</v>
+      </c>
+      <c r="E20">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H20">
+        <v>-130.18</v>
+      </c>
+      <c r="I20">
+        <v>20.14</v>
+      </c>
+      <c r="J20">
+        <v>150.32</v>
+      </c>
+      <c r="M20">
+        <v>483.29</v>
+      </c>
+      <c r="N20">
+        <v>493.33999999999992</v>
+      </c>
+      <c r="O20">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R20">
+        <v>-41.859999999999971</v>
+      </c>
+      <c r="S20">
+        <v>65.37</v>
+      </c>
+      <c r="T20">
         <v>107.23</v>
       </c>
     </row>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4847A235-BBD5-4A50-A4C0-0F756C4C21D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C05B85-5492-4FCC-96AF-663256144FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1655,15 +1655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1990,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C05B85-5492-4FCC-96AF-663256144FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2A675-17AE-4C78-8CDC-2086CFB50305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>06/17/21</t>
+  </si>
+  <si>
+    <t>06/21/21</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$20</c:f>
+              <c:f>Bankrolls!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -305,16 +308,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>06/21/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$20</c:f>
+              <c:f>Bankrolls!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -371,6 +377,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>202.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>216.44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,7 +387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1DC6-4D2E-80C6-754EDFDB9A38}"/>
+              <c16:uniqueId val="{00000000-230C-479F-8014-97E4E98B9323}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -590,9 +599,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$20</c:f>
+              <c:f>Bankrolls!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -649,16 +658,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>06/21/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$20</c:f>
+              <c:f>Bankrolls!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -715,6 +727,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-130.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-123.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -722,7 +737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9CBD-442A-B637-8C31B74B5F84}"/>
+              <c16:uniqueId val="{00000000-EBA6-4614-A73B-E13B87F69B18}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -933,9 +948,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$20</c:f>
+              <c:f>Bankrolls!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -992,16 +1007,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>06/21/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$20</c:f>
+              <c:f>Bankrolls!$M$2:$M$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1058,6 +1076,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>483.29</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>461.32000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,7 +1086,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-98AE-4B5D-8B41-06B75DDA382A}"/>
+              <c16:uniqueId val="{00000000-C993-474D-BE84-C352622B8B28}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1276,9 +1297,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$20</c:f>
+              <c:f>Bankrolls!$A$2:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1335,16 +1356,19 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>06/17/21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>06/21/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$20</c:f>
+              <c:f>Bankrolls!$R$2:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1401,6 +1425,9 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>-41.859999999999971</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-40.979999999999968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,7 +1435,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C62E-4936-99D0-D32F10039C7A}"/>
+              <c16:uniqueId val="{00000000-143F-4EDC-A86D-A15D08827DF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1988,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2868,6 +2895,47 @@
         <v>107.23</v>
       </c>
     </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>216.44</v>
+      </c>
+      <c r="D21">
+        <v>277.77</v>
+      </c>
+      <c r="E21">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H21">
+        <v>-123.4</v>
+      </c>
+      <c r="I21">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="J21">
+        <v>159.03</v>
+      </c>
+      <c r="M21">
+        <v>461.32000000000011</v>
+      </c>
+      <c r="N21">
+        <v>471.36999999999989</v>
+      </c>
+      <c r="O21">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R21">
+        <v>-40.979999999999968</v>
+      </c>
+      <c r="S21">
+        <v>66.25</v>
+      </c>
+      <c r="T21">
+        <v>107.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F2A675-17AE-4C78-8CDC-2086CFB50305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E633FEA-940F-4A02-8F05-F05E536C9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1684,13 +1684,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2018,7 +2018,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseph.phillips\Documents\GitHub\Poker-Stats\Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E633FEA-940F-4A02-8F05-F05E536C9CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAA74AF-A885-4B85-BFEF-D634847097AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>06/21/21</t>
+  </si>
+  <si>
+    <t>06/24/21</t>
   </si>
 </sst>
 </file>
@@ -249,9 +252,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$21</c:f>
+              <c:f>Bankrolls!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -311,16 +314,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>06/24/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$21</c:f>
+              <c:f>Bankrolls!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -380,6 +386,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>216.44</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>235.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -387,7 +396,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-230C-479F-8014-97E4E98B9323}"/>
+              <c16:uniqueId val="{00000000-93C4-41FC-B62A-EF8431444C75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -599,9 +608,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$21</c:f>
+              <c:f>Bankrolls!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -661,16 +670,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>06/24/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$21</c:f>
+              <c:f>Bankrolls!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -730,6 +742,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-123.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-30.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,7 +752,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBA6-4614-A73B-E13B87F69B18}"/>
+              <c16:uniqueId val="{00000000-FF3F-493A-B6EB-443F646A701B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -948,9 +963,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$21</c:f>
+              <c:f>Bankrolls!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1010,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>06/24/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$21</c:f>
+              <c:f>Bankrolls!$M$2:$M$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1079,6 +1097,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>461.32000000000011</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>401.32000000000011</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1086,7 +1107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C993-474D-BE84-C352622B8B28}"/>
+              <c16:uniqueId val="{00000000-069C-485A-8EA0-E6428E9B0346}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,9 +1318,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$21</c:f>
+              <c:f>Bankrolls!$A$2:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1359,16 +1380,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>06/21/21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>06/24/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$21</c:f>
+              <c:f>Bankrolls!$R$2:$R$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1428,6 +1452,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-40.979999999999968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-73.239999999999966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1462,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-143F-4EDC-A86D-A15D08827DF4}"/>
+              <c16:uniqueId val="{00000000-8A7A-4C28-A715-90040A0E09B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2015,10 +2042,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="Y41" sqref="Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2936,6 +2963,47 @@
         <v>107.23</v>
       </c>
     </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>235.66</v>
+      </c>
+      <c r="D22">
+        <v>296.99</v>
+      </c>
+      <c r="E22">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H22">
+        <v>-30.36</v>
+      </c>
+      <c r="I22">
+        <v>128.66999999999999</v>
+      </c>
+      <c r="J22">
+        <v>159.03</v>
+      </c>
+      <c r="M22">
+        <v>401.32000000000011</v>
+      </c>
+      <c r="N22">
+        <v>411.36999999999989</v>
+      </c>
+      <c r="O22">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R22">
+        <v>-73.239999999999966</v>
+      </c>
+      <c r="S22">
+        <v>37.74</v>
+      </c>
+      <c r="T22">
+        <v>110.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4935" yWindow="840" windowWidth="21570" windowHeight="14265" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Charts" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1512,15 +1513,15 @@
   <twoCellAnchor>
     <from>
       <col>0</col>
-      <colOff>314325</colOff>
-      <row>21</row>
-      <rowOff>152400</rowOff>
+      <colOff>180975</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
     </from>
     <to>
       <col>6</col>
-      <colOff>333375</colOff>
-      <row>36</row>
-      <rowOff>80962</rowOff>
+      <colOff>504825</colOff>
+      <row>15</row>
+      <rowOff>38100</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1539,15 +1540,15 @@
   <twoCellAnchor>
     <from>
       <col>7</col>
-      <colOff>200025</colOff>
-      <row>22</row>
-      <rowOff>57150</rowOff>
+      <colOff>238125</colOff>
+      <row>1</row>
+      <rowOff>38100</rowOff>
     </from>
     <to>
       <col>13</col>
-      <colOff>219075</colOff>
-      <row>36</row>
-      <rowOff>176212</rowOff>
+      <colOff>590551</colOff>
+      <row>15</row>
+      <rowOff>23812</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1565,16 +1566,16 @@
   </twoCellAnchor>
   <twoCellAnchor>
     <from>
-      <col>13</col>
-      <colOff>428625</colOff>
-      <row>22</row>
-      <rowOff>114300</rowOff>
+      <col>0</col>
+      <colOff>238125</colOff>
+      <row>16</row>
+      <rowOff>142875</rowOff>
     </from>
     <to>
-      <col>19</col>
-      <colOff>447675</colOff>
-      <row>37</row>
-      <rowOff>42862</rowOff>
+      <col>6</col>
+      <colOff>504825</colOff>
+      <row>30</row>
+      <rowOff>185737</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1592,16 +1593,16 @@
   </twoCellAnchor>
   <twoCellAnchor>
     <from>
-      <col>20</col>
-      <colOff>142875</colOff>
-      <row>22</row>
-      <rowOff>114300</rowOff>
+      <col>7</col>
+      <colOff>285750</colOff>
+      <row>16</row>
+      <rowOff>142875</rowOff>
     </from>
     <to>
-      <col>26</col>
-      <colOff>161925</colOff>
-      <row>37</row>
-      <rowOff>42862</rowOff>
+      <col>13</col>
+      <colOff>542925</colOff>
+      <row>30</row>
+      <rowOff>185737</rowOff>
     </to>
     <graphicFrame>
       <nvGraphicFramePr>
@@ -1916,15 +1917,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Y41" sqref="Y41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3014,22 +3015,35 @@
       <c r="O23" t="n">
         <v>10.05</v>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Didn't play</t>
-        </is>
-      </c>
       <c r="R23" t="n">
-        <v>-73.23999999999997</v>
+        <v>-66.36999999999996</v>
       </c>
       <c r="S23" t="n">
-        <v>37.74</v>
+        <v>44.61</v>
       </c>
       <c r="T23" t="n">
         <v>110.98</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7280B8C3-4D36-4839-A175-53C019557571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B1E33-098A-4032-9EC0-9F59F026A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>06/28/21</t>
+  </si>
+  <si>
+    <t>07/05/21</t>
   </si>
 </sst>
 </file>
@@ -255,9 +258,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$22</c:f>
+              <c:f>Bankrolls!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -320,16 +323,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>07/05/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$22</c:f>
+              <c:f>Bankrolls!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -392,6 +401,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>235.66</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>224.98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>258.57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,7 +414,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF5A-4A11-823B-287553B8BF9D}"/>
+              <c16:uniqueId val="{00000000-9B65-476C-8E55-FAB5D8652304}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -611,9 +626,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$22</c:f>
+              <c:f>Bankrolls!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -676,16 +691,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>07/05/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$22</c:f>
+              <c:f>Bankrolls!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -748,6 +769,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-30.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-27.62</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-54.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -755,7 +782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BF49-4DD0-8781-9A98AE0ABDBC}"/>
+              <c16:uniqueId val="{00000000-B097-4428-93F0-09D34230838E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -966,9 +993,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$22</c:f>
+              <c:f>Bankrolls!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1031,16 +1058,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>07/05/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$22</c:f>
+              <c:f>Bankrolls!$M$2:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1103,6 +1136,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>401.32000000000011</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>402.3900000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>395.41000000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1110,7 +1149,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-301E-45D9-9FC6-A27562FB75F1}"/>
+              <c16:uniqueId val="{00000000-4282-4CB1-AB20-09A3BA4C8472}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1321,9 +1360,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$22</c:f>
+              <c:f>Bankrolls!$A$2:$A$24</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1386,16 +1425,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>06/24/21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>06/28/21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>07/05/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$22</c:f>
+              <c:f>Bankrolls!$R$2:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1458,6 +1503,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>-73.239999999999966</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-66.369999999999962</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-66.369999999999962</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1516,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3F8-462C-8D80-9E5419DA67ED}"/>
+              <c16:uniqueId val="{00000000-BDAA-453E-933C-5FA1315DF843}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2045,10 +2096,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,6 +3099,50 @@
         <v>110.98</v>
       </c>
     </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>258.57</v>
+      </c>
+      <c r="D24">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="E24">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H24">
+        <v>-54.23</v>
+      </c>
+      <c r="I24">
+        <v>104.8</v>
+      </c>
+      <c r="J24">
+        <v>159.03</v>
+      </c>
+      <c r="M24">
+        <v>395.41000000000008</v>
+      </c>
+      <c r="N24">
+        <v>405.45999999999992</v>
+      </c>
+      <c r="O24">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R24">
+        <v>-66.369999999999962</v>
+      </c>
+      <c r="S24">
+        <v>44.61</v>
+      </c>
+      <c r="T24">
+        <v>110.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9B1E33-098A-4032-9EC0-9F59F026A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4085B3A5-06B2-49B5-9DF9-3CEA20865B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>07/05/21</t>
+  </si>
+  <si>
+    <t>07/08/21</t>
+  </si>
+  <si>
+    <t>07/12/21</t>
   </si>
 </sst>
 </file>
@@ -258,9 +264,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$24</c:f>
+              <c:f>Bankrolls!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -329,16 +335,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>07/12/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$24</c:f>
+              <c:f>Bankrolls!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -407,6 +419,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>258.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>249.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>209.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +432,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B65-476C-8E55-FAB5D8652304}"/>
+              <c16:uniqueId val="{00000000-2BDE-4F8C-A8CB-E4C886E3A33B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -626,9 +644,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$24</c:f>
+              <c:f>Bankrolls!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -697,16 +715,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>07/12/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$24</c:f>
+              <c:f>Bankrolls!$H$2:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -775,6 +799,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-54.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18.91</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>67.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,7 +812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B097-4428-93F0-09D34230838E}"/>
+              <c16:uniqueId val="{00000000-A379-47BF-922B-1F6C4DBCD66E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -993,9 +1023,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$24</c:f>
+              <c:f>Bankrolls!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1064,16 +1094,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>07/12/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$24</c:f>
+              <c:f>Bankrolls!$M$2:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1142,6 +1178,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>395.41000000000008</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>440.06000000000012</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>413.40000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,7 +1191,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4282-4CB1-AB20-09A3BA4C8472}"/>
+              <c16:uniqueId val="{00000000-E671-43EB-9B26-234E386E900B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1360,9 +1402,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$24</c:f>
+              <c:f>Bankrolls!$A$2:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1431,16 +1473,22 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>07/05/21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>07/08/21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>07/12/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$24</c:f>
+              <c:f>Bankrolls!$R$2:$R$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="25"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1509,6 +1557,12 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>-66.369999999999962</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-121.67</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-103.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,7 +1570,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDAA-453E-933C-5FA1315DF843}"/>
+              <c16:uniqueId val="{00000000-1D83-48AD-B4D3-61B5E69EC8D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2096,10 +2150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,6 +3197,88 @@
         <v>110.98</v>
       </c>
     </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>249.67</v>
+      </c>
+      <c r="D25">
+        <v>311</v>
+      </c>
+      <c r="E25">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H25">
+        <v>18.91</v>
+      </c>
+      <c r="I25">
+        <v>177.94</v>
+      </c>
+      <c r="J25">
+        <v>159.03</v>
+      </c>
+      <c r="M25">
+        <v>440.06000000000012</v>
+      </c>
+      <c r="N25">
+        <v>450.1099999999999</v>
+      </c>
+      <c r="O25">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R25">
+        <v>-121.67</v>
+      </c>
+      <c r="S25">
+        <v>24.7</v>
+      </c>
+      <c r="T25">
+        <v>146.37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26">
+        <v>209.67</v>
+      </c>
+      <c r="D26">
+        <v>271</v>
+      </c>
+      <c r="E26">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H26">
+        <v>67.64</v>
+      </c>
+      <c r="I26">
+        <v>226.67</v>
+      </c>
+      <c r="J26">
+        <v>159.03</v>
+      </c>
+      <c r="M26">
+        <v>413.40000000000009</v>
+      </c>
+      <c r="N26">
+        <v>423.44999999999987</v>
+      </c>
+      <c r="O26">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R26">
+        <v>-103.74</v>
+      </c>
+      <c r="S26">
+        <v>42.63</v>
+      </c>
+      <c r="T26">
+        <v>146.37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Outputs/bankrolls.xlsx
+++ b/Outputs/bankrolls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Documents\GitHub\Poker-Stats\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4085B3A5-06B2-49B5-9DF9-3CEA20865B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733C28D9-E1B7-4C35-AD14-A502ADD8D2FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bankrolls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>07/12/21</t>
+  </si>
+  <si>
+    <t>07/20/21</t>
   </si>
 </sst>
 </file>
@@ -264,9 +267,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$26</c:f>
+              <c:f>Bankrolls!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -341,16 +344,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$C$2:$C$26</c:f>
+              <c:f>Bankrolls!$C$2:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-15.44</c:v>
                 </c:pt>
@@ -425,6 +431,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>209.67</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>194.16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -432,7 +441,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2BDE-4F8C-A8CB-E4C886E3A33B}"/>
+              <c16:uniqueId val="{00000000-60E1-4318-9E6B-F184DD9F81BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -644,9 +653,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$26</c:f>
+              <c:f>Bankrolls!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -721,16 +730,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$H$2:$H$26</c:f>
+              <c:f>Bankrolls!$H$2:$H$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -805,6 +817,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>67.64</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -812,7 +827,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A379-47BF-922B-1F6C4DBCD66E}"/>
+              <c16:uniqueId val="{00000000-994E-48F3-9107-D225D67828A4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1023,9 +1038,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$26</c:f>
+              <c:f>Bankrolls!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1100,16 +1115,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$M$2:$M$26</c:f>
+              <c:f>Bankrolls!$M$2:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>41.56</c:v>
                 </c:pt>
@@ -1184,6 +1202,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>413.40000000000009</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>358.40000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1191,7 +1212,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E671-43EB-9B26-234E386E900B}"/>
+              <c16:uniqueId val="{00000000-4044-470A-A831-8DEDF3C23247}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1402,9 +1423,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Bankrolls!$A$2:$A$26</c:f>
+              <c:f>Bankrolls!$A$2:$A$27</c:f>
               <c:strCache>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>04/09/21</c:v>
                 </c:pt>
@@ -1479,16 +1500,19 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>07/12/21</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>07/20/21</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Bankrolls!$R$2:$R$26</c:f>
+              <c:f>Bankrolls!$R$2:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-26.12</c:v>
                 </c:pt>
@@ -1563,6 +1587,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>-103.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-94.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,7 +1597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1D83-48AD-B4D3-61B5E69EC8D2}"/>
+              <c16:uniqueId val="{00000000-E217-4E9A-BF51-BF15F0C582EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1746,14 +1773,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2150,22 +2177,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2218,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2262,7 +2289,7 @@
         <v>26.12</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2303,7 +2330,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2344,7 +2371,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2388,7 +2415,7 @@
         <v>59.45</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2429,7 +2456,7 @@
         <v>70.099999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2470,7 +2497,7 @@
         <v>81.97999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2541,7 @@
         <v>91.86999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2561,7 +2588,7 @@
         <v>91.86999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2602,7 +2629,7 @@
         <v>91.86999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2673,7 @@
         <v>99.61999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2687,7 +2714,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2802,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2846,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2860,7 +2887,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2901,7 +2928,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2942,7 +2969,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2989,7 +3016,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -3071,7 +3098,7 @@
         <v>107.23</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -3112,7 +3139,7 @@
         <v>110.98</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -3153,7 +3180,7 @@
         <v>110.98</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -3197,7 +3224,7 @@
         <v>110.98</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -3238,7 +3265,7 @@
         <v>146.37</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -3276,6 +3303,47 @@
         <v>42.63</v>
       </c>
       <c r="T26">
+        <v>146.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>194.16</v>
+      </c>
+      <c r="D27">
+        <v>255.49</v>
+      </c>
+      <c r="E27">
+        <v>61.330000000000013</v>
+      </c>
+      <c r="H27">
+        <v>97.88</v>
+      </c>
+      <c r="I27">
+        <v>256.91000000000003</v>
+      </c>
+      <c r="J27">
+        <v>159.03</v>
+      </c>
+      <c r="M27">
+        <v>358.40000000000009</v>
+      </c>
+      <c r="N27">
+        <v>368.44999999999987</v>
+      </c>
+      <c r="O27">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="R27">
+        <v>-94.52</v>
+      </c>
+      <c r="S27">
+        <v>51.85</v>
+      </c>
+      <c r="T27">
         <v>146.37</v>
       </c>
     </row>
